--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69567</v>
+        <v>69570</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191355526</v>
+        <v>191357970</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278190</v>
+        <v>278194</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752192782</v>
+        <v>1752207808</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>119202</v>
+        <v>119203</v>
       </c>
       <c r="D14" t="n">
         <v>25292</v>
       </c>
       <c r="E14" t="n">
-        <v>379399838</v>
+        <v>379400089</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22089</v>
+        <v>22091</v>
       </c>
       <c r="D104" t="n">
         <v>4583</v>
       </c>
       <c r="E104" t="n">
-        <v>84769332</v>
+        <v>84771211</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17549</v>
+        <v>17550</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38605108</v>
+        <v>38608142</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D120" t="n">
         <v>455</v>
       </c>
       <c r="E120" t="n">
-        <v>4371451</v>
+        <v>4372951</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50565</v>
+        <v>50567</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168372196</v>
+        <v>168401925</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284924</v>
+        <v>284943</v>
       </c>
       <c r="D168" t="n">
-        <v>58121</v>
+        <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1208579561</v>
+        <v>1208719126</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562562</v>
+        <v>562565</v>
       </c>
       <c r="D169" t="n">
         <v>60954</v>
       </c>
       <c r="E169" t="n">
-        <v>1284326336</v>
+        <v>1284336204</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367273</v>
+        <v>367288</v>
       </c>
       <c r="D170" t="n">
         <v>38109</v>
       </c>
       <c r="E170" t="n">
-        <v>2844007211</v>
+        <v>2844202045</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115104</v>
+        <v>115108</v>
       </c>
       <c r="D171" t="n">
         <v>20263</v>
       </c>
       <c r="E171" t="n">
-        <v>444722696</v>
+        <v>444769728</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54383</v>
+        <v>54384</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151846897</v>
+        <v>151848977</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357162</v>
+        <v>357168</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1016687994</v>
+        <v>1016719883</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125510</v>
+        <v>125514</v>
       </c>
       <c r="D175" t="n">
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>811651869</v>
+        <v>811815500</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96746</v>
+        <v>96747</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174705213</v>
+        <v>174708298</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235655</v>
+        <v>235659</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>812084503</v>
+        <v>812286671</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141443</v>
+        <v>141456</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>340022513</v>
+        <v>340126057</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13101</v>
+        <v>13103</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32996553</v>
+        <v>33006180</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11678220</v>
+        <v>11726703</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11097853</v>
+        <v>11192315</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="D221" t="n">
         <v>324</v>
       </c>
       <c r="E221" t="n">
-        <v>7091551</v>
+        <v>7098337</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5413</v>
+        <v>5414</v>
       </c>
       <c r="D240" t="n">
         <v>1053</v>
       </c>
       <c r="E240" t="n">
-        <v>14218107</v>
+        <v>14226741</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216630</v>
+        <v>216631</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209898249</v>
+        <v>1209907101</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
